--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1755618.768817891</v>
+        <v>-1758477.939013055</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.28769834946536</v>
+        <v>56.56995359489721</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.3293844675377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.3678978585457</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -792,7 +792,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>1.739108244908212</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.83233159568159</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>239.8079481415045</v>
+        <v>26.71891485534643</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>220.7742444965156</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>208.2085323732921</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>86.61330373878731</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>191.7773960662853</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1057,10 +1057,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>78.82603539283464</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>157.5948267341421</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>381.098282404997</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.636469273344</v>
       </c>
       <c r="H8" t="n">
-        <v>301.9276324845243</v>
+        <v>133.8050204424053</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.0467603356909</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3818907166712</v>
       </c>
       <c r="H9" t="n">
-        <v>93.29026250281292</v>
+        <v>93.29026250281298</v>
       </c>
       <c r="I9" t="n">
-        <v>21.85817844205279</v>
+        <v>21.85817844205299</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.2468202218443</v>
+        <v>27.01928414667198</v>
       </c>
       <c r="T9" t="n">
         <v>192.2579975353052</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>97.54544912831813</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.4272523769104</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>48.10365854608341</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3464176409832</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>105.9940189144483</v>
+        <v>105.9940189144484</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>103.3479163350419</v>
+        <v>103.3479163350421</v>
       </c>
       <c r="S10" t="n">
-        <v>195.3563724696939</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.9188257263405</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.615473018211</v>
       </c>
       <c r="E13" t="n">
-        <v>33.0162797694393</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>159.4718642460878</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>92.01576915441001</v>
       </c>
       <c r="G16" t="n">
-        <v>159.8103881934283</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238267</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>84.07981473403068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>285.8269508967746</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.8121873168108</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>62.36981422367011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>56.49518623012952</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.95497330697962</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>144.108843301494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>34.03048557918976</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.20606459030872</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652587</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>121.4115068567771</v>
+        <v>560.7865044148627</v>
       </c>
       <c r="C2" t="n">
-        <v>121.4115068567771</v>
+        <v>318.5562537668781</v>
       </c>
       <c r="D2" t="n">
-        <v>121.4115068567771</v>
+        <v>318.5562537668781</v>
       </c>
       <c r="E2" t="n">
-        <v>32.23201357448885</v>
+        <v>261.4148864993051</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23201357448885</v>
+        <v>261.4148864993051</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J2" t="n">
         <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192954</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605484</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859556</v>
+        <v>449.0101090859561</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779376</v>
+        <v>643.3443219779382</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948968</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444232</v>
+        <v>924.2476725444243</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660193</v>
       </c>
       <c r="R2" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628461</v>
+        <v>803.0167550628474</v>
       </c>
       <c r="T2" t="n">
-        <v>588.2168933305571</v>
+        <v>803.0167550628474</v>
       </c>
       <c r="U2" t="n">
-        <v>345.9866426825728</v>
+        <v>803.0167550628474</v>
       </c>
       <c r="V2" t="n">
-        <v>345.9866426825728</v>
+        <v>560.7865044148627</v>
       </c>
       <c r="W2" t="n">
-        <v>345.9866426825728</v>
+        <v>560.7865044148627</v>
       </c>
       <c r="X2" t="n">
-        <v>345.9866426825728</v>
+        <v>560.7865044148627</v>
       </c>
       <c r="Y2" t="n">
-        <v>121.4115068567771</v>
+        <v>560.7865044148627</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.6536034856866</v>
+        <v>361.7683455072375</v>
       </c>
       <c r="C3" t="n">
-        <v>314.6536034856866</v>
+        <v>361.7683455072375</v>
       </c>
       <c r="D3" t="n">
-        <v>165.7191938244354</v>
+        <v>361.7683455072375</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7191938244354</v>
+        <v>202.530890501782</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132036</v>
+        <v>202.530890501782</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132036</v>
+        <v>65.08949286100392</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132036</v>
+        <v>65.08949286100392</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132036</v>
+        <v>85.30141548166314</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467723</v>
+        <v>152.9092351450201</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>290.1388331607139</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>469.6361695153187</v>
       </c>
       <c r="N3" t="n">
-        <v>602.17613153764</v>
+        <v>668.2929111679832</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367426</v>
+        <v>827.8052238367437</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640412</v>
+        <v>936.4948513640425</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R3" t="n">
-        <v>959.231792566018</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="S3" t="n">
-        <v>809.7650034286528</v>
+        <v>788.6531038308409</v>
       </c>
       <c r="T3" t="n">
-        <v>612.7757075887404</v>
+        <v>591.6638079909285</v>
       </c>
       <c r="U3" t="n">
-        <v>612.7757075887404</v>
+        <v>363.5250205020943</v>
       </c>
       <c r="V3" t="n">
-        <v>612.7757075887404</v>
+        <v>363.5250205020943</v>
       </c>
       <c r="W3" t="n">
-        <v>612.7757075887404</v>
+        <v>363.5250205020943</v>
       </c>
       <c r="X3" t="n">
-        <v>404.9242073832075</v>
+        <v>361.7683455072375</v>
       </c>
       <c r="Y3" t="n">
-        <v>404.9242073832075</v>
+        <v>361.7683455072375</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.4392789515553</v>
+        <v>485.8212138506659</v>
       </c>
       <c r="C4" t="n">
-        <v>173.4392789515553</v>
+        <v>485.8212138506659</v>
       </c>
       <c r="D4" t="n">
-        <v>173.4392789515553</v>
+        <v>335.7045744383302</v>
       </c>
       <c r="E4" t="n">
-        <v>173.4392789515553</v>
+        <v>187.791480855937</v>
       </c>
       <c r="F4" t="n">
-        <v>173.4392789515553</v>
+        <v>187.791480855937</v>
       </c>
       <c r="G4" t="n">
-        <v>173.4392789515553</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>63.76336012264457</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>248.5963550234629</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669861</v>
+        <v>453.8659557427007</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030903</v>
+        <v>659.689320578805</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916892</v>
+        <v>833.7842159674038</v>
       </c>
       <c r="P4" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R4" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S4" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T4" t="n">
-        <v>959.231792566018</v>
+        <v>733.6025958783844</v>
       </c>
       <c r="U4" t="n">
-        <v>959.231792566018</v>
+        <v>733.6025958783844</v>
       </c>
       <c r="V4" t="n">
-        <v>959.231792566018</v>
+        <v>733.6025958783844</v>
       </c>
       <c r="W4" t="n">
-        <v>717.0015419180337</v>
+        <v>706.613792994196</v>
       </c>
       <c r="X4" t="n">
-        <v>489.0119910200164</v>
+        <v>706.613792994196</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.2194118764862</v>
+        <v>485.8212138506659</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.4777567984221</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C5" t="n">
         <v>157.4777567984221</v>
@@ -4562,25 +4562,25 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>690.2330699327782</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>690.2330699327782</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>690.2330699327782</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>690.2330699327782</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y5" t="n">
-        <v>423.8554133656002</v>
+        <v>646.8597007358178</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258.9779587411641</v>
+        <v>209.069457884966</v>
       </c>
       <c r="C6" t="n">
-        <v>258.9779587411641</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="D6" t="n">
-        <v>258.9779587411641</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="E6" t="n">
-        <v>258.9779587411641</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F6" t="n">
-        <v>258.9779587411641</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
         <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U6" t="n">
-        <v>842.8050947317189</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="V6" t="n">
-        <v>842.8050947317189</v>
+        <v>671.0671133781216</v>
       </c>
       <c r="W6" t="n">
-        <v>842.8050947317189</v>
+        <v>416.8297566499199</v>
       </c>
       <c r="X6" t="n">
-        <v>634.9535945261861</v>
+        <v>416.8297566499199</v>
       </c>
       <c r="Y6" t="n">
-        <v>427.1932957612322</v>
+        <v>209.069457884966</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.4177110298542</v>
+        <v>567.6852842953165</v>
       </c>
       <c r="C7" t="n">
-        <v>144.4815281019473</v>
+        <v>398.7491013674096</v>
       </c>
       <c r="D7" t="n">
-        <v>144.4815281019473</v>
+        <v>248.6324619550739</v>
       </c>
       <c r="E7" t="n">
-        <v>144.4815281019473</v>
+        <v>100.7193683726807</v>
       </c>
       <c r="F7" t="n">
-        <v>144.4815281019473</v>
+        <v>100.7193683726807</v>
       </c>
       <c r="G7" t="n">
-        <v>144.4815281019473</v>
+        <v>100.7193683726807</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>100.7193683726807</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>700.5939555987222</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>700.5939555987222</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>700.5939555987222</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>541.4072619278716</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X7" t="n">
-        <v>313.4177110298542</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y7" t="n">
-        <v>313.4177110298542</v>
+        <v>567.6852842953165</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1523.764187881994</v>
+        <v>1396.807248079822</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.801670941582</v>
+        <v>1396.807248079822</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.801670941582</v>
+        <v>1396.807248079822</v>
       </c>
       <c r="E8" t="n">
-        <v>1154.801670941582</v>
+        <v>1011.018995481577</v>
       </c>
       <c r="F8" t="n">
-        <v>769.8539109365349</v>
+        <v>600.0330906919698</v>
       </c>
       <c r="G8" t="n">
-        <v>354.0594975291166</v>
+        <v>184.2386772845516</v>
       </c>
       <c r="H8" t="n">
-        <v>49.08209097909199</v>
+        <v>49.08209097909173</v>
       </c>
       <c r="I8" t="n">
-        <v>49.08209097909199</v>
+        <v>49.08209097909173</v>
       </c>
       <c r="J8" t="n">
-        <v>177.9048803425208</v>
+        <v>177.9048803425198</v>
       </c>
       <c r="K8" t="n">
-        <v>421.7153659811036</v>
+        <v>421.7153659811015</v>
       </c>
       <c r="L8" t="n">
-        <v>761.0855944715963</v>
+        <v>761.0855944715925</v>
       </c>
       <c r="M8" t="n">
-        <v>1170.369800753879</v>
+        <v>1170.369800753873</v>
       </c>
       <c r="N8" t="n">
-        <v>1590.890461766105</v>
+        <v>1590.890461766097</v>
       </c>
       <c r="O8" t="n">
-        <v>1974.64093615047</v>
+        <v>1974.64093615046</v>
       </c>
       <c r="P8" t="n">
-        <v>2267.662086797563</v>
+        <v>2267.662086797552</v>
       </c>
       <c r="Q8" t="n">
-        <v>2439.536021171616</v>
+        <v>2439.536021171603</v>
       </c>
       <c r="R8" t="n">
-        <v>2454.1045489546</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="S8" t="n">
-        <v>2454.1045489546</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="T8" t="n">
-        <v>2244.966407201377</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="U8" t="n">
-        <v>2244.966407201377</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="V8" t="n">
-        <v>1913.903519857806</v>
+        <v>2123.041661611016</v>
       </c>
       <c r="W8" t="n">
-        <v>1913.903519857806</v>
+        <v>1770.273006340901</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.903519857806</v>
+        <v>1396.807248079822</v>
       </c>
       <c r="Y8" t="n">
-        <v>1523.764187881994</v>
+        <v>1396.807248079822</v>
       </c>
     </row>
     <row r="9">
@@ -4875,52 +4875,52 @@
         <v>165.3936474890573</v>
       </c>
       <c r="H9" t="n">
-        <v>71.16105910237764</v>
+        <v>71.16105910237758</v>
       </c>
       <c r="I9" t="n">
-        <v>49.08209097909199</v>
+        <v>49.08209097909173</v>
       </c>
       <c r="J9" t="n">
-        <v>106.9902148424999</v>
+        <v>106.9902148424991</v>
       </c>
       <c r="K9" t="n">
-        <v>545.9398313627063</v>
+        <v>545.9398313627046</v>
       </c>
       <c r="L9" t="n">
-        <v>830.4342149577169</v>
+        <v>830.4342149577139</v>
       </c>
       <c r="M9" t="n">
-        <v>1181.782610052189</v>
+        <v>1181.782610052185</v>
       </c>
       <c r="N9" t="n">
-        <v>1556.83879661078</v>
+        <v>1764.284433948275</v>
       </c>
       <c r="O9" t="n">
-        <v>1877.722138939599</v>
+        <v>2085.167776277093</v>
       </c>
       <c r="P9" t="n">
-        <v>2344.790609075712</v>
+        <v>2323.371881827869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2454.1045489546</v>
+        <v>2432.685821706755</v>
       </c>
       <c r="R9" t="n">
-        <v>2454.1045489546</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="S9" t="n">
-        <v>2317.491599235565</v>
+        <v>2426.812342745827</v>
       </c>
       <c r="T9" t="n">
-        <v>2123.291601725155</v>
+        <v>2232.612345235417</v>
       </c>
       <c r="U9" t="n">
-        <v>1895.198341412537</v>
+        <v>2004.519084922799</v>
       </c>
       <c r="V9" t="n">
-        <v>1660.046233180795</v>
+        <v>1769.366976691057</v>
       </c>
       <c r="W9" t="n">
-        <v>1405.808876452593</v>
+        <v>1515.129619962855</v>
       </c>
       <c r="X9" t="n">
         <v>1307.278119757322</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.0633885329938</v>
+        <v>502.7660436309235</v>
       </c>
       <c r="C10" t="n">
-        <v>471.0633885329938</v>
+        <v>454.1764895439705</v>
       </c>
       <c r="D10" t="n">
-        <v>471.0633885329938</v>
+        <v>304.0598501316348</v>
       </c>
       <c r="E10" t="n">
-        <v>471.0633885329938</v>
+        <v>156.1467565492417</v>
       </c>
       <c r="F10" t="n">
-        <v>324.1734410350834</v>
+        <v>156.1467565492417</v>
       </c>
       <c r="G10" t="n">
-        <v>156.1467565492418</v>
+        <v>156.1467565492417</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1467565492418</v>
+        <v>156.1467565492417</v>
       </c>
       <c r="I10" t="n">
-        <v>49.08209097909199</v>
+        <v>49.08209097909173</v>
       </c>
       <c r="J10" t="n">
-        <v>71.76431095485167</v>
+        <v>71.76431095485107</v>
       </c>
       <c r="K10" t="n">
-        <v>238.8750027912646</v>
+        <v>238.8750027912635</v>
       </c>
       <c r="L10" t="n">
-        <v>508.2455887473331</v>
+        <v>508.2455887473312</v>
       </c>
       <c r="M10" t="n">
-        <v>802.6482261894325</v>
+        <v>802.6482261894298</v>
       </c>
       <c r="N10" t="n">
-        <v>1095.485243357261</v>
+        <v>1095.485243357258</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.951330241949</v>
+        <v>1349.951330241945</v>
       </c>
       <c r="P10" t="n">
-        <v>1544.170345717845</v>
+        <v>1544.17034571784</v>
       </c>
       <c r="Q10" t="n">
-        <v>1595.202444715673</v>
+        <v>1595.202444715667</v>
       </c>
       <c r="R10" t="n">
-        <v>1490.810610033812</v>
+        <v>1490.810610033807</v>
       </c>
       <c r="S10" t="n">
-        <v>1293.480940872505</v>
+        <v>1490.810610033807</v>
       </c>
       <c r="T10" t="n">
-        <v>1070.330611855999</v>
+        <v>1267.660281017301</v>
       </c>
       <c r="U10" t="n">
-        <v>1070.330611855999</v>
+        <v>1267.660281017301</v>
       </c>
       <c r="V10" t="n">
-        <v>815.6461236501126</v>
+        <v>1012.975792811414</v>
       </c>
       <c r="W10" t="n">
-        <v>815.6461236501126</v>
+        <v>723.5586227744536</v>
       </c>
       <c r="X10" t="n">
-        <v>587.6565727520953</v>
+        <v>723.5586227744536</v>
       </c>
       <c r="Y10" t="n">
-        <v>587.6565727520953</v>
+        <v>502.7660436309235</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,37 +5042,37 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1540.888753373307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703091</v>
+        <v>802.9288273958744</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424022</v>
+        <v>633.9926444679675</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300665</v>
+        <v>483.8760050556331</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>483.8760050556331</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>336.9860575577227</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782938</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038324</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138393</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703091</v>
+        <v>984.5772922261141</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239595</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565533</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770278</v>
+        <v>962.6357307816205</v>
       </c>
       <c r="C16" t="n">
-        <v>634.3345878491209</v>
+        <v>793.6995478537136</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367852</v>
+        <v>643.5829084413779</v>
       </c>
       <c r="E16" t="n">
-        <v>484.2179484367852</v>
+        <v>495.6698148589848</v>
       </c>
       <c r="F16" t="n">
-        <v>337.3280009388748</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648815</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750798</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072675</v>
+        <v>1144.28419561186</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,46 +5753,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5990,19 +5990,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,13 +6014,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>232.9692110769568</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>232.9692110769568</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6227,16 +6227,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.182581213089</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.193030315072</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2345.543151974895</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2125.941686997837</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2356.04164637206</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.21291626627</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7132,10 +7132,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
@@ -7324,19 +7324,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954147</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>73.01783107116353</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66.78462588923452</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>49.70416500699031</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>77.96696197637777</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839809</v>
+        <v>61.89011047839806</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127267</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>209.5410478156573</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>231.1761258437741</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.88659178320817</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.4649436295027</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>293.6426717227964</v>
+        <v>310.8581269839446</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>173.108955804432</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079613</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>87.94431032863005</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22683,7 +22683,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.9996485862557</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508649</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>113.4176828771299</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.052274046181054</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>53.40527886852124</v>
       </c>
       <c r="G16" t="n">
-        <v>5.713750098840535</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187165</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>168.0578285897973</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.357523492469511</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.77246603528397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.79952661609437</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>142.414155035097</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>146.9958004224548</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>176.3785887617861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>652246.4444800892</v>
       </c>
       <c r="C3" t="n">
-        <v>26462.50553395224</v>
+        <v>26462.50553395179</v>
       </c>
       <c r="D3" t="n">
-        <v>363812.9290969828</v>
+        <v>363812.9290969797</v>
       </c>
       <c r="E3" t="n">
-        <v>533304.2467061834</v>
+        <v>533304.2467061871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353585</v>
+        <v>62744.3107835359</v>
       </c>
       <c r="K3" t="n">
-        <v>6152.621870944929</v>
+        <v>6152.621870944811</v>
       </c>
       <c r="L3" t="n">
-        <v>107962.0519900377</v>
+        <v>107962.0519900369</v>
       </c>
       <c r="M3" t="n">
-        <v>139350.4287231643</v>
+        <v>139350.4287231652</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178012.5862349588</v>
+        <v>178012.5862349585</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>150392.4003638322</v>
+        <v>150392.4003638331</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,13 +26430,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26445,19 +26445,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491157</v>
+        <v>20377.77944491162</v>
       </c>
       <c r="M4" t="n">
         <v>20377.77944491163</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491163</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.77944491158</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491162</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437328</v>
+        <v>61145.7022343733</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>90811.24525228245</v>
+        <v>90811.24525228218</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789853.4484128278</v>
+        <v>-790213.5314285454</v>
       </c>
       <c r="C6" t="n">
-        <v>-219370.808165911</v>
+        <v>-219370.8081659106</v>
       </c>
       <c r="D6" t="n">
-        <v>-481860.309233455</v>
+        <v>-481860.3092334524</v>
       </c>
       <c r="E6" t="n">
-        <v>-525741.7067584078</v>
+        <v>-525776.4446838471</v>
       </c>
       <c r="F6" t="n">
-        <v>7562.539947775644</v>
+        <v>7527.802022339922</v>
       </c>
       <c r="G6" t="n">
-        <v>7562.539947775629</v>
+        <v>7527.802022339965</v>
       </c>
       <c r="H6" t="n">
-        <v>7562.539947775615</v>
+        <v>7527.802022339965</v>
       </c>
       <c r="I6" t="n">
-        <v>7562.539947775731</v>
+        <v>7527.802022339922</v>
       </c>
       <c r="J6" t="n">
-        <v>-55181.77083576018</v>
+        <v>-55216.50876119592</v>
       </c>
       <c r="K6" t="n">
-        <v>1409.918076830741</v>
+        <v>1375.180151395165</v>
       </c>
       <c r="L6" t="n">
-        <v>-108347.6818092221</v>
+        <v>-108347.6818092215</v>
       </c>
       <c r="M6" t="n">
-        <v>-139736.0585423488</v>
+        <v>-139736.0585423497</v>
       </c>
       <c r="N6" t="n">
-        <v>-385.6298191844253</v>
+        <v>-385.6298191845708</v>
       </c>
       <c r="O6" t="n">
         <v>-385.6298191844835</v>
       </c>
       <c r="P6" t="n">
-        <v>-385.6298191845563</v>
+        <v>-385.6298191845126</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>911.9842251455289</v>
+        <v>911.9842251455262</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>613.5261372386499</v>
+        <v>613.5261372386466</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>20.57891343141375</v>
+        <v>20.57891343141341</v>
       </c>
       <c r="D3" t="n">
-        <v>297.9292113760505</v>
+        <v>297.929211376048</v>
       </c>
       <c r="E3" t="n">
-        <v>455.9912751961447</v>
+        <v>455.991275196148</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>23.90593186000174</v>
+        <v>23.90593186000129</v>
       </c>
       <c r="D4" t="n">
-        <v>349.8122572371436</v>
+        <v>349.8122572371404</v>
       </c>
       <c r="E4" t="n">
-        <v>559.1821508609983</v>
+        <v>559.182150861002</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000174</v>
+        <v>23.90593186000129</v>
       </c>
       <c r="L4" t="n">
-        <v>349.8122572371436</v>
+        <v>349.8122572371404</v>
       </c>
       <c r="M4" t="n">
-        <v>559.1821508609983</v>
+        <v>559.182150861002</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000174</v>
+        <v>23.90593186000129</v>
       </c>
       <c r="L4" t="n">
-        <v>349.8122572371436</v>
+        <v>349.8122572371404</v>
       </c>
       <c r="M4" t="n">
-        <v>559.1821508609983</v>
+        <v>559.182150861002</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>14.50228949341994</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>163.9085541885159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.16528579132164</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,16 +27512,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.0338769585693</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>259.8040834812446</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>161.959597166965</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27670,7 +27670,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>42.93963550499043</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>86.09519524952843</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>34.07709143726933</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>43.3245381319739</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>128.9281716024489</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.77776333671443</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>168.1226120421192</v>
       </c>
       <c r="I8" t="n">
-        <v>69.13208317875564</v>
+        <v>69.13208317875603</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>125.4749820264313</v>
+        <v>125.4749820264315</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.046760335691</v>
       </c>
       <c r="U8" t="n">
         <v>251.0523514484932</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>108.2275360751724</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>108.2275360751593</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.40472780502689</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>119.1431625525444</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3464176409832</v>
       </c>
       <c r="H10" t="n">
         <v>147.6055237829752</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.356372469694</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29989,19 +29989,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847382</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784624</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720919</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.666268241791068</v>
+        <v>3.666268241791057</v>
       </c>
       <c r="H8" t="n">
-        <v>37.54716963124279</v>
+        <v>37.54716963124267</v>
       </c>
       <c r="I8" t="n">
-        <v>141.3438063916503</v>
+        <v>141.3438063916499</v>
       </c>
       <c r="J8" t="n">
-        <v>311.169934186715</v>
+        <v>311.169934186714</v>
       </c>
       <c r="K8" t="n">
-        <v>466.3630688617309</v>
+        <v>466.3630688617296</v>
       </c>
       <c r="L8" t="n">
-        <v>578.5646255664444</v>
+        <v>578.5646255664428</v>
       </c>
       <c r="M8" t="n">
-        <v>643.7646234113963</v>
+        <v>643.7646234113945</v>
       </c>
       <c r="N8" t="n">
-        <v>654.1814080533852</v>
+        <v>654.1814080533834</v>
       </c>
       <c r="O8" t="n">
-        <v>617.7249532240753</v>
+        <v>617.7249532240735</v>
       </c>
       <c r="P8" t="n">
-        <v>527.2139560048582</v>
+        <v>527.2139560048568</v>
       </c>
       <c r="Q8" t="n">
-        <v>395.9157245957155</v>
+        <v>395.9157245957143</v>
       </c>
       <c r="R8" t="n">
-        <v>230.3012224434084</v>
+        <v>230.3012224434077</v>
       </c>
       <c r="S8" t="n">
-        <v>83.54508755981405</v>
+        <v>83.54508755981381</v>
       </c>
       <c r="T8" t="n">
-        <v>16.04908922844041</v>
+        <v>16.04908922844036</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2933014593432854</v>
+        <v>0.2933014593432846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.96162644653944</v>
+        <v>1.961626446539434</v>
       </c>
       <c r="H9" t="n">
-        <v>18.94518173368354</v>
+        <v>18.94518173368348</v>
       </c>
       <c r="I9" t="n">
-        <v>67.53845440936229</v>
+        <v>67.53845440936209</v>
       </c>
       <c r="J9" t="n">
-        <v>185.3306810741495</v>
+        <v>185.3306810741489</v>
       </c>
       <c r="K9" t="n">
-        <v>316.7596529922919</v>
+        <v>316.759652992291</v>
       </c>
       <c r="L9" t="n">
-        <v>425.9224440172586</v>
+        <v>425.9224440172574</v>
       </c>
       <c r="M9" t="n">
-        <v>497.0314027043132</v>
+        <v>497.0314027043117</v>
       </c>
       <c r="N9" t="n">
-        <v>510.1863449707992</v>
+        <v>510.1863449707978</v>
       </c>
       <c r="O9" t="n">
-        <v>466.7208326553726</v>
+        <v>466.7208326553713</v>
       </c>
       <c r="P9" t="n">
-        <v>374.5846150413777</v>
+        <v>374.5846150413767</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.3998951758064</v>
+        <v>250.3998951758057</v>
       </c>
       <c r="R9" t="n">
-        <v>121.7929121807558</v>
+        <v>121.7929121807554</v>
       </c>
       <c r="S9" t="n">
-        <v>36.43635088199351</v>
+        <v>36.43635088199341</v>
       </c>
       <c r="T9" t="n">
-        <v>7.906731159516422</v>
+        <v>7.906731159516399</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1290543714828579</v>
+        <v>0.1290543714828575</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.644561717475544</v>
+        <v>1.644561717475539</v>
       </c>
       <c r="H10" t="n">
-        <v>14.62164872446439</v>
+        <v>14.62164872446435</v>
       </c>
       <c r="I10" t="n">
-        <v>49.45645601281</v>
+        <v>49.45645601280986</v>
       </c>
       <c r="J10" t="n">
-        <v>116.2705134255209</v>
+        <v>116.2705134255206</v>
       </c>
       <c r="K10" t="n">
-        <v>191.0681704485222</v>
+        <v>191.0681704485217</v>
       </c>
       <c r="L10" t="n">
-        <v>244.5014757054095</v>
+        <v>244.5014757054088</v>
       </c>
       <c r="M10" t="n">
-        <v>257.7925244948254</v>
+        <v>257.7925244948247</v>
       </c>
       <c r="N10" t="n">
-        <v>251.6627944569622</v>
+        <v>251.6627944569615</v>
       </c>
       <c r="O10" t="n">
-        <v>232.4513234846342</v>
+        <v>232.4513234846335</v>
       </c>
       <c r="P10" t="n">
-        <v>198.9022644481329</v>
+        <v>198.9022644481324</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.7096179969749</v>
+        <v>137.7096179969745</v>
       </c>
       <c r="R10" t="n">
-        <v>73.94547504212761</v>
+        <v>73.9454750421274</v>
       </c>
       <c r="S10" t="n">
-        <v>28.66022556727833</v>
+        <v>28.66022556727825</v>
       </c>
       <c r="T10" t="n">
-        <v>7.026763701940958</v>
+        <v>7.026763701940937</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08970336640775703</v>
+        <v>0.08970336640775678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>615.038144437878</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145765</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>345.6771571865346</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>188.4731159523455</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511221</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>171.5999003578897</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>669.466988500007</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>301.9817606876396</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>345.1232217852619</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>277.2922978908106</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>622.3466130915036</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705378</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292146</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012657</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802094</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>196.297184739376</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>171.887904360565</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874002</v>
+        <v>111.8528537874004</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130796</v>
+        <v>35.33749497130808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>66.7846258892351</v>
       </c>
       <c r="K3" t="n">
-        <v>68.2907269326837</v>
+        <v>68.29072693268378</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>138.6157555714079</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>227.9081740394976</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528269</v>
+        <v>109.787502552827</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>22.96660727472414</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>45.02901441547897</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295332</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>69.6751224993221</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1240296600287</v>
+        <v>130.1240296600278</v>
       </c>
       <c r="K8" t="n">
-        <v>246.2732178167504</v>
+        <v>246.273217816749</v>
       </c>
       <c r="L8" t="n">
-        <v>342.7982105964572</v>
+        <v>342.7982105964556</v>
       </c>
       <c r="M8" t="n">
-        <v>413.4183901841236</v>
+        <v>413.4183901841218</v>
       </c>
       <c r="N8" t="n">
-        <v>424.7683444567943</v>
+        <v>424.7683444567925</v>
       </c>
       <c r="O8" t="n">
-        <v>387.6267418023886</v>
+        <v>387.6267418023867</v>
       </c>
       <c r="P8" t="n">
-        <v>295.9809602495887</v>
+        <v>295.9809602495872</v>
       </c>
       <c r="Q8" t="n">
-        <v>173.610034721266</v>
+        <v>173.6100347212648</v>
       </c>
       <c r="R8" t="n">
-        <v>14.71568462927627</v>
+        <v>14.71568462927559</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>58.49305440748276</v>
+        <v>58.49305440748222</v>
       </c>
       <c r="K9" t="n">
-        <v>443.3834510305115</v>
+        <v>443.3834510305106</v>
       </c>
       <c r="L9" t="n">
-        <v>287.3680642373844</v>
+        <v>287.3680642373832</v>
       </c>
       <c r="M9" t="n">
-        <v>354.8973687822948</v>
+        <v>354.8973687822934</v>
       </c>
       <c r="N9" t="n">
-        <v>378.8446328874659</v>
+        <v>588.3856807031218</v>
       </c>
       <c r="O9" t="n">
-        <v>324.1245882109282</v>
+        <v>324.1245882109269</v>
       </c>
       <c r="P9" t="n">
-        <v>471.7863334708215</v>
+        <v>240.6102076270464</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.4181210897848</v>
+        <v>110.4181210897841</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>21.63507802811229</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.91133330884816</v>
+        <v>22.91133330884782</v>
       </c>
       <c r="K10" t="n">
-        <v>168.7986786226394</v>
+        <v>168.7986786226388</v>
       </c>
       <c r="L10" t="n">
-        <v>272.0915009657257</v>
+        <v>272.0915009657249</v>
       </c>
       <c r="M10" t="n">
-        <v>297.376401456666</v>
+        <v>297.3764014566653</v>
       </c>
       <c r="N10" t="n">
-        <v>295.7949668361908</v>
+        <v>295.7949668361901</v>
       </c>
       <c r="O10" t="n">
-        <v>257.0364513986739</v>
+        <v>257.0364513986732</v>
       </c>
       <c r="P10" t="n">
-        <v>196.1808237130264</v>
+        <v>196.1808237130259</v>
       </c>
       <c r="Q10" t="n">
-        <v>51.54757474528047</v>
+        <v>51.54757474528007</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>472.9041105158597</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295144</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>207.1227774066604</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001041</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>197.8432633066776</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>29.46586643587134</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>526.8707440555626</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>211.1488143709317</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>134.6960534463662</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>479.7503686470592</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
